--- a/CaseAndFatalityDemographicsData/2022-09-15.xlsx
+++ b/CaseAndFatalityDemographicsData/2022-09-15.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="95">
   <si>
     <t>Month Year</t>
   </si>
@@ -153,6 +153,9 @@
     <t>July 2022</t>
   </si>
   <si>
+    <t>August 2022</t>
+  </si>
+  <si>
     <t>Total 2022</t>
   </si>
   <si>
@@ -162,7 +165,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>COVID-19 Fatality Demographics, by Age Group by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Fatality Demographics, by Age Group by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -192,7 +195,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>COVID-19 Fatality Demographics, by Sex by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Fatality Demographics, by Sex by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
     <t>Sex</t>
@@ -213,7 +216,7 @@
     <t>White</t>
   </si>
   <si>
-    <t>COVID-19 Fatality Demographics, by Race/Ethnicity by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Fatality Demographics, by Race/Ethnicity by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -282,25 +285,28 @@
     <t>July2022</t>
   </si>
   <si>
+    <t>August2022</t>
+  </si>
+  <si>
     <t>Unknown Date 2022</t>
   </si>
   <si>
-    <t>COVID-19 Confirmed Case Demographics, by Age Group by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Confirmed Case Demographics, by Age Group by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
-    <t>COVID-19 Probable Case Demographics, by Age Group by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Probable Case Demographics, by Age Group by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
-    <t>COVID-19 Confirmed Case Demographics, by Sex by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Confirmed Case Demographics, by Sex by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
-    <t>COVID-19 Probable Case Demographics, by Sex by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Probable Case Demographics, by Sex by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
-    <t>COVID-19 Confirmed Case Demographics, by Race/Ethnicity by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Confirmed Case Demographics, by Race/Ethnicity by Month, 03/07/2020 to 08/31/2022</t>
   </si>
   <si>
-    <t>COVID-19 Probable Case Demographics, by Race/Ethnicity by Month, 03/07/2020 to 07/31/2022</t>
+    <t>COVID-19 Probable Case Demographics, by Race/Ethnicity by Month, 03/07/2020 to 08/31/2022</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,17 +677,17 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1180,7 +1186,7 @@
         <v>952</v>
       </c>
       <c r="I17" s="3">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="J17" s="3">
         <v>2805</v>
@@ -1189,7 +1195,7 @@
         <v>3576</v>
       </c>
       <c r="L17" s="3">
-        <v>9946</v>
+        <v>9947</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1446,7 +1452,7 @@
         <v>1302</v>
       </c>
       <c r="I24" s="3">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="J24" s="3">
         <v>1422</v>
@@ -1455,7 +1461,7 @@
         <v>1276</v>
       </c>
       <c r="L24" s="3">
-        <v>6903</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1475,7 +1481,7 @@
         <v>152</v>
       </c>
       <c r="F25" s="3">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G25" s="3">
         <v>1045</v>
@@ -1493,7 +1499,7 @@
         <v>1375</v>
       </c>
       <c r="L25" s="3">
-        <v>8332</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1525,13 +1531,13 @@
         <v>1097</v>
       </c>
       <c r="J26" s="3">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="K26" s="3">
         <v>640</v>
       </c>
       <c r="L26" s="3">
-        <v>4111</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1627,7 +1633,7 @@
         <v>557</v>
       </c>
       <c r="F29" s="1">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="G29" s="1">
         <v>3902</v>
@@ -1636,16 +1642,16 @@
         <v>6823</v>
       </c>
       <c r="I29" s="1">
-        <v>10375</v>
+        <v>10377</v>
       </c>
       <c r="J29" s="1">
-        <v>10553</v>
+        <v>10554</v>
       </c>
       <c r="K29" s="1">
         <v>10534</v>
       </c>
       <c r="L29" s="1">
-        <v>44598</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1666,8 +1672,8 @@
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="3">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1682,22 +1688,22 @@
         <v>128</v>
       </c>
       <c r="G31" s="3">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H31" s="3">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I31" s="3">
         <v>1157</v>
       </c>
       <c r="J31" s="3">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="K31" s="3">
         <v>1916</v>
       </c>
       <c r="L31" s="3">
-        <v>5647</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1717,25 +1723,25 @@
         <v>25</v>
       </c>
       <c r="F32" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" s="3">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H32" s="3">
         <v>422</v>
       </c>
       <c r="I32" s="3">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="J32" s="3">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="K32" s="3">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="L32" s="3">
-        <v>4046</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1761,10 +1767,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I33" s="3">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J33" s="3">
         <v>278</v>
@@ -1773,7 +1779,7 @@
         <v>276</v>
       </c>
       <c r="L33" s="3">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1802,16 +1808,16 @@
         <v>31</v>
       </c>
       <c r="I34" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J34" s="3">
         <v>73</v>
       </c>
       <c r="K34" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1837,10 +1843,10 @@
         <v>8</v>
       </c>
       <c r="H35" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I35" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J35" s="3">
         <v>32</v>
@@ -1849,7 +1855,7 @@
         <v>70</v>
       </c>
       <c r="L35" s="3">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1875,19 +1881,19 @@
         <v>14</v>
       </c>
       <c r="H36" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I36" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J36" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K36" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L36" s="3">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1910,125 +1916,158 @@
         <v>7</v>
       </c>
       <c r="G37" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3">
+        <v>53</v>
+      </c>
+      <c r="I37" s="3">
+        <v>126</v>
+      </c>
+      <c r="J37" s="3">
+        <v>201</v>
+      </c>
+      <c r="K37" s="3">
+        <v>359</v>
+      </c>
+      <c r="L37" s="3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="3">
-        <v>115</v>
-      </c>
-      <c r="J37" s="3">
-        <v>181</v>
-      </c>
-      <c r="K37" s="3">
-        <v>321</v>
-      </c>
-      <c r="L37" s="3">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>18</v>
+      </c>
+      <c r="H38" s="3">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3">
+        <v>92</v>
+      </c>
+      <c r="J38" s="3">
+        <v>195</v>
+      </c>
+      <c r="K38" s="3">
+        <v>379</v>
+      </c>
+      <c r="L38" s="3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1">
-        <v>83</v>
-      </c>
-      <c r="F38" s="1">
-        <v>241</v>
-      </c>
-      <c r="G38" s="1">
-        <v>536</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1275</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2492</v>
-      </c>
-      <c r="J38" s="1">
-        <v>3252</v>
-      </c>
-      <c r="K38" s="1">
-        <v>4180</v>
-      </c>
-      <c r="L38" s="1">
-        <v>12090</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1">
+        <v>84</v>
+      </c>
+      <c r="F39" s="1">
+        <v>248</v>
+      </c>
+      <c r="G39" s="1">
+        <v>558</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1328</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2605</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3472</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4598</v>
+      </c>
+      <c r="L39" s="1">
+        <v>12927</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="1">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1">
         <v>35</v>
       </c>
-      <c r="D40" s="1">
-        <v>102</v>
-      </c>
-      <c r="E40" s="1">
-        <v>803</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2512</v>
-      </c>
-      <c r="G40" s="1">
-        <v>6013</v>
-      </c>
-      <c r="H40" s="1">
-        <v>11614</v>
-      </c>
-      <c r="I40" s="1">
-        <v>19433</v>
-      </c>
-      <c r="J40" s="1">
-        <v>21971</v>
-      </c>
-      <c r="K40" s="1">
-        <v>25494</v>
-      </c>
-      <c r="L40" s="1">
-        <v>88003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D41" s="1">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1">
+        <v>804</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2520</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6035</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11667</v>
+      </c>
+      <c r="I41" s="1">
+        <v>19548</v>
+      </c>
+      <c r="J41" s="1">
+        <v>22192</v>
+      </c>
+      <c r="K41" s="1">
+        <v>25912</v>
+      </c>
+      <c r="L41" s="1">
+        <v>88844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -2036,6 +2075,11 @@
     <row r="44" spans="1:12">
       <c r="B44" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2056,17 +2100,17 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2074,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -2285,7 +2329,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="C17" s="3">
         <v>5760</v>
@@ -2294,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>9946</v>
+        <v>9947</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2407,13 +2451,13 @@
         <v>2816</v>
       </c>
       <c r="C24" s="3">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>6903</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2421,7 +2465,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="3">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="C25" s="3">
         <v>4881</v>
@@ -2430,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>8332</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2438,7 +2482,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C26" s="3">
         <v>2317</v>
@@ -2447,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>4111</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2489,16 +2533,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="1">
-        <v>18593</v>
+        <v>18596</v>
       </c>
       <c r="C29" s="1">
-        <v>26005</v>
+        <v>26006</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>44598</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2513,16 +2557,16 @@
         <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C31" s="3">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>5647</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2530,16 +2574,16 @@
         <v>37</v>
       </c>
       <c r="B32" s="3">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C32" s="3">
-        <v>2369</v>
+        <v>2374</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>4046</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2547,16 +2591,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="3">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C33" s="3">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2564,16 +2608,16 @@
         <v>39</v>
       </c>
       <c r="B34" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2581,16 +2625,16 @@
         <v>40</v>
       </c>
       <c r="B35" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2598,16 +2642,16 @@
         <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2615,70 +2659,82 @@
         <v>42</v>
       </c>
       <c r="B37" s="3">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="C37" s="3">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>685</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1">
-        <v>5119</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6971</v>
+      <c r="B38" s="3">
+        <v>327</v>
+      </c>
+      <c r="C38" s="3">
+        <v>405</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="1">
-        <v>12090</v>
+      <c r="E38" s="3">
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="1">
+        <v>5494</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7433</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>12927</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="1">
-        <v>36904</v>
-      </c>
-      <c r="C40" s="1">
-        <v>51098</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>37282</v>
+      </c>
+      <c r="C41" s="1">
+        <v>51561</v>
+      </c>
+      <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="1">
-        <v>88003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E41" s="1">
+        <v>88844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -2686,6 +2742,11 @@
     <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2756,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,17 +2767,17 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2724,22 +2785,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -3049,7 +3110,7 @@
         <v>237</v>
       </c>
       <c r="C17" s="3">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D17" s="3">
         <v>3777</v>
@@ -3064,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>9946</v>
+        <v>9947</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3234,7 +3295,7 @@
         <v>816</v>
       </c>
       <c r="D24" s="3">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="E24" s="3">
         <v>44</v>
@@ -3246,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>6903</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3266,13 +3327,13 @@
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="G25" s="3">
         <v>8</v>
       </c>
       <c r="H25" s="3">
-        <v>8332</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3292,13 +3353,13 @@
         <v>31</v>
       </c>
       <c r="F26" s="3">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>4111</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3361,22 +3422,22 @@
         <v>814</v>
       </c>
       <c r="C29" s="1">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="D29" s="1">
-        <v>17489</v>
+        <v>17490</v>
       </c>
       <c r="E29" s="1">
         <v>294</v>
       </c>
       <c r="F29" s="1">
-        <v>21058</v>
+        <v>21060</v>
       </c>
       <c r="G29" s="1">
         <v>31</v>
       </c>
       <c r="H29" s="1">
-        <v>44598</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3406,13 +3467,13 @@
         <v>48</v>
       </c>
       <c r="F31" s="3">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="3">
-        <v>5647</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3423,13 +3484,13 @@
         <v>74</v>
       </c>
       <c r="C32" s="3">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D32" s="3">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E32" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F32" s="3">
         <v>2259</v>
@@ -3438,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="3">
-        <v>4046</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3449,22 +3510,22 @@
         <v>25</v>
       </c>
       <c r="C33" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="3">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3">
         <v>7</v>
       </c>
       <c r="F33" s="3">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3475,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3">
         <v>80</v>
@@ -3484,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3501,22 +3562,22 @@
         <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3524,25 +3585,25 @@
         <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3">
         <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
       </c>
       <c r="F36" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3550,100 +3611,121 @@
         <v>42</v>
       </c>
       <c r="B37" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E37" s="3">
         <v>6</v>
       </c>
       <c r="F37" s="3">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>685</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1">
-        <v>257</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1238</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3835</v>
-      </c>
-      <c r="E38" s="1">
-        <v>90</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6661</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="B38" s="3">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3">
+        <v>199</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>456</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
+        <v>280</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1313</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4066</v>
+      </c>
+      <c r="E39" s="1">
+        <v>96</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7163</v>
+      </c>
+      <c r="G39" s="1">
         <v>9</v>
       </c>
-      <c r="H38" s="1">
-        <v>12090</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="1">
+        <v>12927</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="1">
-        <v>1648</v>
-      </c>
-      <c r="C40" s="1">
-        <v>9327</v>
-      </c>
-      <c r="D40" s="1">
-        <v>36803</v>
-      </c>
-      <c r="E40" s="1">
-        <v>555</v>
-      </c>
-      <c r="F40" s="1">
-        <v>39612</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9403</v>
+      </c>
+      <c r="D41" s="1">
+        <v>37035</v>
+      </c>
+      <c r="E41" s="1">
+        <v>561</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40116</v>
+      </c>
+      <c r="G41" s="1">
         <v>58</v>
       </c>
-      <c r="H40" s="1">
-        <v>88003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="H41" s="1">
+        <v>88844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3651,6 +3733,11 @@
     <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3747,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3671,17 +3758,17 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3719,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>11</v>
@@ -4137,7 +4224,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>250</v>
@@ -4234,7 +4321,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>1194</v>
@@ -4243,51 +4330,51 @@
         <v>24897</v>
       </c>
       <c r="D18" s="3">
-        <v>56519</v>
+        <v>56518</v>
       </c>
       <c r="E18" s="3">
-        <v>82271</v>
+        <v>82273</v>
       </c>
       <c r="F18" s="3">
-        <v>75052</v>
+        <v>75049</v>
       </c>
       <c r="G18" s="3">
-        <v>69617</v>
+        <v>69615</v>
       </c>
       <c r="H18" s="3">
-        <v>61754</v>
+        <v>61752</v>
       </c>
       <c r="I18" s="3">
-        <v>43568</v>
+        <v>43566</v>
       </c>
       <c r="J18" s="3">
         <v>23882</v>
       </c>
       <c r="K18" s="3">
-        <v>13213</v>
+        <v>13210</v>
       </c>
       <c r="L18" s="3">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M18" s="3">
-        <v>452203</v>
+        <v>452191</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>620</v>
       </c>
       <c r="C19" s="3">
-        <v>11450</v>
+        <v>11451</v>
       </c>
       <c r="D19" s="3">
-        <v>26085</v>
+        <v>26082</v>
       </c>
       <c r="E19" s="3">
-        <v>32906</v>
+        <v>32908</v>
       </c>
       <c r="F19" s="3">
         <v>30535</v>
@@ -4299,42 +4386,42 @@
         <v>25090</v>
       </c>
       <c r="I19" s="3">
-        <v>17758</v>
+        <v>17757</v>
       </c>
       <c r="J19" s="3">
-        <v>9427</v>
+        <v>9424</v>
       </c>
       <c r="K19" s="3">
-        <v>5419</v>
+        <v>5418</v>
       </c>
       <c r="L19" s="3">
         <v>87</v>
       </c>
       <c r="M19" s="3">
-        <v>187916</v>
+        <v>187911</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
         <v>407</v>
       </c>
       <c r="C20" s="3">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="D20" s="3">
         <v>13376</v>
       </c>
       <c r="E20" s="3">
-        <v>17717</v>
+        <v>17716</v>
       </c>
       <c r="F20" s="3">
-        <v>15382</v>
+        <v>15380</v>
       </c>
       <c r="G20" s="3">
-        <v>13760</v>
+        <v>13759</v>
       </c>
       <c r="H20" s="3">
         <v>11986</v>
@@ -4343,7 +4430,7 @@
         <v>7749</v>
       </c>
       <c r="J20" s="3">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="K20" s="3">
         <v>2037</v>
@@ -4352,33 +4439,33 @@
         <v>53</v>
       </c>
       <c r="M20" s="3">
-        <v>92083</v>
+        <v>92077</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>388</v>
       </c>
       <c r="C21" s="3">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="D21" s="3">
-        <v>12257</v>
+        <v>12258</v>
       </c>
       <c r="E21" s="3">
-        <v>15497</v>
+        <v>15496</v>
       </c>
       <c r="F21" s="3">
-        <v>12911</v>
+        <v>12910</v>
       </c>
       <c r="G21" s="3">
-        <v>10957</v>
+        <v>10958</v>
       </c>
       <c r="H21" s="3">
-        <v>8409</v>
+        <v>8406</v>
       </c>
       <c r="I21" s="3">
         <v>5004</v>
@@ -4390,15 +4477,15 @@
         <v>1161</v>
       </c>
       <c r="L21" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="3">
-        <v>73996</v>
+        <v>73991</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
         <v>297</v>
@@ -4416,36 +4503,36 @@
         <v>8843</v>
       </c>
       <c r="G22" s="3">
-        <v>7051</v>
+        <v>7050</v>
       </c>
       <c r="H22" s="3">
-        <v>5338</v>
+        <v>5339</v>
       </c>
       <c r="I22" s="3">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="J22" s="3">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K22" s="3">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L22" s="3">
         <v>20</v>
       </c>
       <c r="M22" s="3">
-        <v>48110</v>
+        <v>48109</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>255</v>
       </c>
       <c r="C23" s="3">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="D23" s="3">
         <v>5704</v>
@@ -4457,10 +4544,10 @@
         <v>6959</v>
       </c>
       <c r="G23" s="3">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="H23" s="3">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="I23" s="3">
         <v>2803</v>
@@ -4475,118 +4562,118 @@
         <v>341</v>
       </c>
       <c r="M23" s="3">
-        <v>38399</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C24" s="3">
         <v>12409</v>
       </c>
       <c r="D24" s="3">
-        <v>26800</v>
+        <v>26799</v>
       </c>
       <c r="E24" s="3">
-        <v>37354</v>
+        <v>37343</v>
       </c>
       <c r="F24" s="3">
-        <v>34354</v>
+        <v>34349</v>
       </c>
       <c r="G24" s="3">
-        <v>29092</v>
+        <v>29089</v>
       </c>
       <c r="H24" s="3">
-        <v>22737</v>
+        <v>22729</v>
       </c>
       <c r="I24" s="3">
-        <v>14109</v>
+        <v>14108</v>
       </c>
       <c r="J24" s="3">
-        <v>7195</v>
+        <v>7191</v>
       </c>
       <c r="K24" s="3">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="L24" s="3">
         <v>867</v>
       </c>
       <c r="M24" s="3">
-        <v>190040</v>
+        <v>190005</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="C25" s="3">
-        <v>35433</v>
+        <v>35428</v>
       </c>
       <c r="D25" s="3">
-        <v>59883</v>
+        <v>59871</v>
       </c>
       <c r="E25" s="3">
-        <v>67059</v>
+        <v>67053</v>
       </c>
       <c r="F25" s="3">
-        <v>65092</v>
+        <v>65081</v>
       </c>
       <c r="G25" s="3">
-        <v>51214</v>
+        <v>51211</v>
       </c>
       <c r="H25" s="3">
-        <v>37850</v>
+        <v>37847</v>
       </c>
       <c r="I25" s="3">
-        <v>25324</v>
+        <v>25322</v>
       </c>
       <c r="J25" s="3">
-        <v>12983</v>
+        <v>12981</v>
       </c>
       <c r="K25" s="3">
-        <v>5812</v>
+        <v>5811</v>
       </c>
       <c r="L25" s="3">
         <v>95</v>
       </c>
       <c r="M25" s="3">
-        <v>364054</v>
+        <v>364006</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
         <v>2547</v>
       </c>
       <c r="C26" s="3">
-        <v>35127</v>
+        <v>35125</v>
       </c>
       <c r="D26" s="3">
-        <v>64455</v>
+        <v>64448</v>
       </c>
       <c r="E26" s="3">
-        <v>46127</v>
+        <v>46117</v>
       </c>
       <c r="F26" s="3">
-        <v>51178</v>
+        <v>51165</v>
       </c>
       <c r="G26" s="3">
-        <v>41410</v>
+        <v>41402</v>
       </c>
       <c r="H26" s="3">
-        <v>29275</v>
+        <v>29277</v>
       </c>
       <c r="I26" s="3">
-        <v>20468</v>
+        <v>20463</v>
       </c>
       <c r="J26" s="3">
         <v>10507</v>
@@ -4598,80 +4685,80 @@
         <v>21</v>
       </c>
       <c r="M26" s="3">
-        <v>306102</v>
+        <v>306059</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C27" s="3">
-        <v>12748</v>
+        <v>12745</v>
       </c>
       <c r="D27" s="3">
-        <v>17938</v>
+        <v>17936</v>
       </c>
       <c r="E27" s="3">
-        <v>17548</v>
+        <v>17546</v>
       </c>
       <c r="F27" s="3">
-        <v>20458</v>
+        <v>20456</v>
       </c>
       <c r="G27" s="3">
-        <v>16676</v>
+        <v>16670</v>
       </c>
       <c r="H27" s="3">
-        <v>12951</v>
+        <v>12944</v>
       </c>
       <c r="I27" s="3">
-        <v>9637</v>
+        <v>9635</v>
       </c>
       <c r="J27" s="3">
-        <v>5124</v>
+        <v>5120</v>
       </c>
       <c r="K27" s="3">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="L27" s="3">
         <v>5</v>
       </c>
       <c r="M27" s="3">
-        <v>116636</v>
+        <v>116606</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
         <v>651</v>
       </c>
       <c r="C28" s="3">
-        <v>7036</v>
+        <v>7029</v>
       </c>
       <c r="D28" s="3">
-        <v>9228</v>
+        <v>9227</v>
       </c>
       <c r="E28" s="3">
         <v>10992</v>
       </c>
       <c r="F28" s="3">
-        <v>12040</v>
+        <v>12034</v>
       </c>
       <c r="G28" s="3">
-        <v>9731</v>
+        <v>9723</v>
       </c>
       <c r="H28" s="3">
         <v>7943</v>
       </c>
       <c r="I28" s="3">
-        <v>5667</v>
+        <v>5665</v>
       </c>
       <c r="J28" s="3">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="K28" s="3">
         <v>1820</v>
@@ -4680,39 +4767,39 @@
         <v>28</v>
       </c>
       <c r="M28" s="3">
-        <v>68356</v>
+        <v>68331</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C29" s="3">
-        <v>15666</v>
+        <v>15670</v>
       </c>
       <c r="D29" s="3">
-        <v>29251</v>
+        <v>29253</v>
       </c>
       <c r="E29" s="3">
-        <v>56939</v>
+        <v>56936</v>
       </c>
       <c r="F29" s="3">
-        <v>49559</v>
+        <v>49569</v>
       </c>
       <c r="G29" s="3">
-        <v>36373</v>
+        <v>36380</v>
       </c>
       <c r="H29" s="3">
-        <v>26139</v>
+        <v>26148</v>
       </c>
       <c r="I29" s="3">
-        <v>15934</v>
+        <v>15937</v>
       </c>
       <c r="J29" s="3">
-        <v>7229</v>
+        <v>7233</v>
       </c>
       <c r="K29" s="3">
         <v>3244</v>
@@ -4721,48 +4808,48 @@
         <v>40</v>
       </c>
       <c r="M29" s="3">
-        <v>242765</v>
+        <v>242802</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C30" s="3">
-        <v>3390</v>
+        <v>3398</v>
       </c>
       <c r="D30" s="3">
-        <v>6706</v>
+        <v>6715</v>
       </c>
       <c r="E30" s="3">
-        <v>14826</v>
+        <v>14855</v>
       </c>
       <c r="F30" s="3">
-        <v>12211</v>
+        <v>12249</v>
       </c>
       <c r="G30" s="3">
-        <v>9614</v>
+        <v>9630</v>
       </c>
       <c r="H30" s="3">
-        <v>7515</v>
+        <v>7537</v>
       </c>
       <c r="I30" s="3">
-        <v>4839</v>
+        <v>4860</v>
       </c>
       <c r="J30" s="3">
-        <v>2348</v>
+        <v>2360</v>
       </c>
       <c r="K30" s="3">
-        <v>1149</v>
+        <v>1162</v>
       </c>
       <c r="L30" s="3">
         <v>56</v>
       </c>
       <c r="M30" s="3">
-        <v>63265</v>
+        <v>63435</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4770,40 +4857,40 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>14872</v>
+        <v>14870</v>
       </c>
       <c r="C31" s="1">
-        <v>175454</v>
+        <v>175449</v>
       </c>
       <c r="D31" s="1">
-        <v>335727</v>
+        <v>335712</v>
       </c>
       <c r="E31" s="1">
-        <v>416462</v>
+        <v>416461</v>
       </c>
       <c r="F31" s="1">
-        <v>394574</v>
+        <v>394579</v>
       </c>
       <c r="G31" s="1">
-        <v>329664</v>
+        <v>329655</v>
       </c>
       <c r="H31" s="1">
-        <v>261341</v>
+        <v>261351</v>
       </c>
       <c r="I31" s="1">
-        <v>176140</v>
+        <v>176148</v>
       </c>
       <c r="J31" s="1">
         <v>90910</v>
       </c>
       <c r="K31" s="1">
-        <v>46897</v>
+        <v>46904</v>
       </c>
       <c r="L31" s="1">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="M31" s="1">
-        <v>2243925</v>
+        <v>2243921</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4823,107 +4910,107 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>14537</v>
+        <v>14532</v>
       </c>
       <c r="C33" s="3">
-        <v>117866</v>
+        <v>117830</v>
       </c>
       <c r="D33" s="3">
-        <v>187554</v>
+        <v>187498</v>
       </c>
       <c r="E33" s="3">
-        <v>234589</v>
+        <v>234540</v>
       </c>
       <c r="F33" s="3">
-        <v>222903</v>
+        <v>222822</v>
       </c>
       <c r="G33" s="3">
-        <v>187342</v>
+        <v>187285</v>
       </c>
       <c r="H33" s="3">
-        <v>147788</v>
+        <v>147746</v>
       </c>
       <c r="I33" s="3">
-        <v>97347</v>
+        <v>97317</v>
       </c>
       <c r="J33" s="3">
-        <v>47484</v>
+        <v>47470</v>
       </c>
       <c r="K33" s="3">
-        <v>21046</v>
+        <v>21041</v>
       </c>
       <c r="L33" s="3">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M33" s="3">
-        <v>1279254</v>
+        <v>1278880</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="C34" s="3">
-        <v>25333</v>
+        <v>25329</v>
       </c>
       <c r="D34" s="3">
-        <v>32927</v>
+        <v>32926</v>
       </c>
       <c r="E34" s="3">
-        <v>36256</v>
+        <v>36243</v>
       </c>
       <c r="F34" s="3">
-        <v>39265</v>
+        <v>39262</v>
       </c>
       <c r="G34" s="3">
-        <v>33459</v>
+        <v>33449</v>
       </c>
       <c r="H34" s="3">
-        <v>28366</v>
+        <v>28359</v>
       </c>
       <c r="I34" s="3">
-        <v>22714</v>
+        <v>22705</v>
       </c>
       <c r="J34" s="3">
-        <v>13537</v>
+        <v>13534</v>
       </c>
       <c r="K34" s="3">
-        <v>7267</v>
+        <v>7262</v>
       </c>
       <c r="L34" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M34" s="3">
-        <v>242349</v>
+        <v>242290</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
         <v>734</v>
       </c>
       <c r="C35" s="3">
-        <v>6043</v>
+        <v>6041</v>
       </c>
       <c r="D35" s="3">
         <v>9852</v>
       </c>
       <c r="E35" s="3">
-        <v>12014</v>
+        <v>12010</v>
       </c>
       <c r="F35" s="3">
-        <v>12864</v>
+        <v>12861</v>
       </c>
       <c r="G35" s="3">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="H35" s="3">
         <v>8644</v>
@@ -4932,329 +5019,365 @@
         <v>6421</v>
       </c>
       <c r="J35" s="3">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="K35" s="3">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="L35" s="3">
         <v>22</v>
       </c>
       <c r="M35" s="3">
-        <v>72964</v>
+        <v>72953</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C36" s="3">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="D36" s="3">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="E36" s="3">
-        <v>6659</v>
+        <v>6666</v>
       </c>
       <c r="F36" s="3">
-        <v>7117</v>
+        <v>7120</v>
       </c>
       <c r="G36" s="3">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="H36" s="3">
-        <v>4913</v>
+        <v>4919</v>
       </c>
       <c r="I36" s="3">
-        <v>4020</v>
+        <v>4022</v>
       </c>
       <c r="J36" s="3">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="K36" s="3">
         <v>1237</v>
       </c>
       <c r="L36" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M36" s="3">
-        <v>39485</v>
+        <v>39504</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C37" s="3">
-        <v>5335</v>
+        <v>5348</v>
       </c>
       <c r="D37" s="3">
-        <v>8746</v>
+        <v>8774</v>
       </c>
       <c r="E37" s="3">
-        <v>15593</v>
+        <v>15637</v>
       </c>
       <c r="F37" s="3">
-        <v>16506</v>
+        <v>16550</v>
       </c>
       <c r="G37" s="3">
-        <v>13807</v>
+        <v>13848</v>
       </c>
       <c r="H37" s="3">
-        <v>11952</v>
+        <v>11988</v>
       </c>
       <c r="I37" s="3">
-        <v>9085</v>
+        <v>9113</v>
       </c>
       <c r="J37" s="3">
-        <v>4829</v>
+        <v>4848</v>
       </c>
       <c r="K37" s="3">
-        <v>2127</v>
+        <v>2132</v>
       </c>
       <c r="L37" s="3">
         <v>19</v>
       </c>
       <c r="M37" s="3">
-        <v>88921</v>
+        <v>89182</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
-        <v>2895</v>
+        <v>2909</v>
       </c>
       <c r="C38" s="3">
-        <v>10773</v>
+        <v>10807</v>
       </c>
       <c r="D38" s="3">
-        <v>14673</v>
+        <v>14796</v>
       </c>
       <c r="E38" s="3">
-        <v>33692</v>
+        <v>33913</v>
       </c>
       <c r="F38" s="3">
-        <v>34283</v>
+        <v>34508</v>
       </c>
       <c r="G38" s="3">
-        <v>28854</v>
+        <v>29079</v>
       </c>
       <c r="H38" s="3">
-        <v>25681</v>
+        <v>25882</v>
       </c>
       <c r="I38" s="3">
-        <v>19337</v>
+        <v>19460</v>
       </c>
       <c r="J38" s="3">
-        <v>11240</v>
+        <v>11320</v>
       </c>
       <c r="K38" s="3">
-        <v>5299</v>
+        <v>5366</v>
       </c>
       <c r="L38" s="3">
         <v>89</v>
       </c>
       <c r="M38" s="3">
-        <v>186816</v>
+        <v>188129</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>2635</v>
+        <v>6186</v>
       </c>
       <c r="C39" s="3">
-        <v>8323</v>
+        <v>19336</v>
       </c>
       <c r="D39" s="3">
-        <v>9191</v>
+        <v>20692</v>
       </c>
       <c r="E39" s="3">
-        <v>21419</v>
+        <v>46783</v>
       </c>
       <c r="F39" s="3">
-        <v>20983</v>
+        <v>45805</v>
       </c>
       <c r="G39" s="3">
-        <v>17554</v>
+        <v>38450</v>
       </c>
       <c r="H39" s="3">
-        <v>15945</v>
+        <v>34795</v>
       </c>
       <c r="I39" s="3">
-        <v>12412</v>
+        <v>27414</v>
       </c>
       <c r="J39" s="3">
-        <v>7235</v>
+        <v>16423</v>
       </c>
       <c r="K39" s="3">
-        <v>3554</v>
+        <v>8414</v>
       </c>
       <c r="L39" s="3">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="M39" s="3">
-        <v>119300</v>
+        <v>264466</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3">
+        <v>1916</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6141</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6701</v>
+      </c>
+      <c r="E40" s="3">
+        <v>14237</v>
+      </c>
+      <c r="F40" s="3">
+        <v>13952</v>
+      </c>
+      <c r="G40" s="3">
+        <v>12061</v>
+      </c>
+      <c r="H40" s="3">
+        <v>10945</v>
+      </c>
+      <c r="I40" s="3">
+        <v>8506</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5327</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2628</v>
+      </c>
+      <c r="L40" s="3">
+        <v>60</v>
+      </c>
+      <c r="M40" s="3">
+        <v>82474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3">
         <v>76</v>
       </c>
-      <c r="C40" s="3">
-        <v>547</v>
-      </c>
-      <c r="D40" s="3">
-        <v>939</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1172</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1177</v>
-      </c>
-      <c r="G40" s="3">
-        <v>967</v>
-      </c>
-      <c r="H40" s="3">
-        <v>732</v>
-      </c>
-      <c r="I40" s="3">
-        <v>513</v>
-      </c>
-      <c r="J40" s="3">
-        <v>203</v>
-      </c>
-      <c r="K40" s="3">
-        <v>139</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="C41" s="3">
+        <v>552</v>
+      </c>
+      <c r="D41" s="3">
+        <v>942</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1176</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1184</v>
+      </c>
+      <c r="G41" s="3">
+        <v>974</v>
+      </c>
+      <c r="H41" s="3">
+        <v>739</v>
+      </c>
+      <c r="I41" s="3">
+        <v>520</v>
+      </c>
+      <c r="J41" s="3">
+        <v>208</v>
+      </c>
+      <c r="K41" s="3">
+        <v>142</v>
+      </c>
+      <c r="L41" s="3">
         <v>2</v>
       </c>
-      <c r="M40" s="3">
-        <v>6467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>25405</v>
-      </c>
-      <c r="C41" s="1">
-        <v>176864</v>
-      </c>
-      <c r="D41" s="1">
-        <v>267967</v>
-      </c>
-      <c r="E41" s="1">
-        <v>361394</v>
-      </c>
-      <c r="F41" s="1">
-        <v>355098</v>
-      </c>
-      <c r="G41" s="1">
-        <v>298451</v>
-      </c>
-      <c r="H41" s="1">
-        <v>244021</v>
-      </c>
-      <c r="I41" s="1">
-        <v>171849</v>
-      </c>
-      <c r="J41" s="1">
-        <v>90716</v>
-      </c>
-      <c r="K41" s="1">
-        <v>42700</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1091</v>
-      </c>
-      <c r="M41" s="1">
-        <v>2035556</v>
+      <c r="M41" s="3">
+        <v>6515</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>30878</v>
+      </c>
+      <c r="C42" s="1">
+        <v>194025</v>
+      </c>
+      <c r="D42" s="1">
+        <v>286268</v>
+      </c>
+      <c r="E42" s="1">
+        <v>401205</v>
+      </c>
+      <c r="F42" s="1">
+        <v>394064</v>
+      </c>
+      <c r="G42" s="1">
+        <v>331615</v>
+      </c>
+      <c r="H42" s="1">
+        <v>274017</v>
+      </c>
+      <c r="I42" s="1">
+        <v>195478</v>
+      </c>
+      <c r="J42" s="1">
+        <v>105318</v>
+      </c>
+      <c r="K42" s="1">
+        <v>50254</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1271</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2264393</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>49410</v>
-      </c>
-      <c r="C43" s="1">
-        <v>419267</v>
-      </c>
-      <c r="D43" s="1">
-        <v>781960</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1097720</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1031657</v>
-      </c>
-      <c r="G43" s="1">
-        <v>884741</v>
-      </c>
-      <c r="H43" s="1">
-        <v>726797</v>
-      </c>
-      <c r="I43" s="1">
-        <v>496661</v>
-      </c>
-      <c r="J43" s="1">
-        <v>258967</v>
-      </c>
-      <c r="K43" s="1">
-        <v>136014</v>
-      </c>
-      <c r="L43" s="1">
-        <v>16786</v>
-      </c>
-      <c r="M43" s="1">
-        <v>5899980</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>54881</v>
+      </c>
+      <c r="C44" s="1">
+        <v>436423</v>
+      </c>
+      <c r="D44" s="1">
+        <v>800246</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1137530</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1070628</v>
+      </c>
+      <c r="G44" s="1">
+        <v>917896</v>
+      </c>
+      <c r="H44" s="1">
+        <v>756803</v>
+      </c>
+      <c r="I44" s="1">
+        <v>520298</v>
+      </c>
+      <c r="J44" s="1">
+        <v>273569</v>
+      </c>
+      <c r="K44" s="1">
+        <v>143575</v>
+      </c>
+      <c r="L44" s="1">
+        <v>16964</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6128813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -5262,6 +5385,11 @@
     <row r="47" spans="1:13">
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5282,17 +5410,17 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5330,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>11</v>
@@ -5748,7 +5876,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>27</v>
@@ -5845,13 +5973,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>226</v>
       </c>
       <c r="C18" s="3">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="D18" s="3">
         <v>11160</v>
@@ -5866,7 +5994,7 @@
         <v>14305</v>
       </c>
       <c r="H18" s="3">
-        <v>12961</v>
+        <v>12963</v>
       </c>
       <c r="I18" s="3">
         <v>9034</v>
@@ -5881,12 +6009,12 @@
         <v>79</v>
       </c>
       <c r="M18" s="3">
-        <v>90609</v>
+        <v>90612</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>157</v>
@@ -5898,7 +6026,7 @@
         <v>8067</v>
       </c>
       <c r="E19" s="3">
-        <v>7736</v>
+        <v>7735</v>
       </c>
       <c r="F19" s="3">
         <v>8110</v>
@@ -5922,12 +6050,12 @@
         <v>39</v>
       </c>
       <c r="M19" s="3">
-        <v>48766</v>
+        <v>48765</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
         <v>122</v>
@@ -5936,7 +6064,7 @@
         <v>2094</v>
       </c>
       <c r="D20" s="3">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="E20" s="3">
         <v>6641</v>
@@ -5951,7 +6079,7 @@
         <v>4394</v>
       </c>
       <c r="I20" s="3">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="J20" s="3">
         <v>1226</v>
@@ -5963,33 +6091,33 @@
         <v>36</v>
       </c>
       <c r="M20" s="3">
-        <v>35495</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D21" s="3">
         <v>5263</v>
       </c>
       <c r="E21" s="3">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="F21" s="3">
         <v>4821</v>
       </c>
       <c r="G21" s="3">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="H21" s="3">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="I21" s="3">
         <v>1611</v>
@@ -6004,12 +6132,12 @@
         <v>24</v>
       </c>
       <c r="M21" s="3">
-        <v>27357</v>
+        <v>27355</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
         <v>72</v>
@@ -6024,7 +6152,7 @@
         <v>3507</v>
       </c>
       <c r="F22" s="3">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="G22" s="3">
         <v>2583</v>
@@ -6045,12 +6173,12 @@
         <v>22</v>
       </c>
       <c r="M22" s="3">
-        <v>17684</v>
+        <v>17683</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>98</v>
@@ -6062,16 +6190,16 @@
         <v>2361</v>
       </c>
       <c r="E23" s="3">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="F23" s="3">
         <v>2620</v>
       </c>
       <c r="G23" s="3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="H23" s="3">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I23" s="3">
         <v>820</v>
@@ -6086,77 +6214,77 @@
         <v>51</v>
       </c>
       <c r="M23" s="3">
-        <v>13808</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C24" s="3">
-        <v>4240</v>
+        <v>4242</v>
       </c>
       <c r="D24" s="3">
-        <v>10053</v>
+        <v>10061</v>
       </c>
       <c r="E24" s="3">
-        <v>11517</v>
+        <v>11532</v>
       </c>
       <c r="F24" s="3">
-        <v>10654</v>
+        <v>10661</v>
       </c>
       <c r="G24" s="3">
-        <v>9049</v>
+        <v>9055</v>
       </c>
       <c r="H24" s="3">
-        <v>7187</v>
+        <v>7196</v>
       </c>
       <c r="I24" s="3">
-        <v>4070</v>
+        <v>4073</v>
       </c>
       <c r="J24" s="3">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="K24" s="3">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="L24" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" s="3">
-        <v>60447</v>
+        <v>60506</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C25" s="3">
-        <v>8853</v>
+        <v>8856</v>
       </c>
       <c r="D25" s="3">
-        <v>17390</v>
+        <v>17391</v>
       </c>
       <c r="E25" s="3">
-        <v>16144</v>
+        <v>16142</v>
       </c>
       <c r="F25" s="3">
-        <v>16411</v>
+        <v>16415</v>
       </c>
       <c r="G25" s="3">
-        <v>13195</v>
+        <v>13191</v>
       </c>
       <c r="H25" s="3">
-        <v>10186</v>
+        <v>10184</v>
       </c>
       <c r="I25" s="3">
-        <v>6741</v>
+        <v>6743</v>
       </c>
       <c r="J25" s="3">
         <v>3563</v>
@@ -6168,74 +6296,74 @@
         <v>27</v>
       </c>
       <c r="M25" s="3">
-        <v>94873</v>
+        <v>94877</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C26" s="3">
-        <v>13238</v>
+        <v>13237</v>
       </c>
       <c r="D26" s="3">
-        <v>27069</v>
+        <v>27072</v>
       </c>
       <c r="E26" s="3">
-        <v>13372</v>
+        <v>13373</v>
       </c>
       <c r="F26" s="3">
-        <v>15916</v>
+        <v>15909</v>
       </c>
       <c r="G26" s="3">
-        <v>13323</v>
+        <v>13322</v>
       </c>
       <c r="H26" s="3">
-        <v>10108</v>
+        <v>10103</v>
       </c>
       <c r="I26" s="3">
-        <v>6786</v>
+        <v>6784</v>
       </c>
       <c r="J26" s="3">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="K26" s="3">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="L26" s="3">
         <v>17</v>
       </c>
       <c r="M26" s="3">
-        <v>105898</v>
+        <v>105881</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C27" s="3">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="D27" s="3">
-        <v>8261</v>
+        <v>8260</v>
       </c>
       <c r="E27" s="3">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="F27" s="3">
         <v>7387</v>
       </c>
       <c r="G27" s="3">
-        <v>6072</v>
+        <v>6071</v>
       </c>
       <c r="H27" s="3">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="I27" s="3">
         <v>3693</v>
@@ -6244,39 +6372,39 @@
         <v>2028</v>
       </c>
       <c r="K27" s="3">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L27" s="3">
         <v>4</v>
       </c>
       <c r="M27" s="3">
-        <v>45143</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
         <v>218</v>
       </c>
       <c r="C28" s="3">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D28" s="3">
         <v>4435</v>
       </c>
       <c r="E28" s="3">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="F28" s="3">
-        <v>4752</v>
+        <v>4751</v>
       </c>
       <c r="G28" s="3">
         <v>4067</v>
       </c>
       <c r="H28" s="3">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="I28" s="3">
         <v>2649</v>
@@ -6285,95 +6413,95 @@
         <v>1319</v>
       </c>
       <c r="K28" s="3">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L28" s="3">
         <v>7</v>
       </c>
       <c r="M28" s="3">
-        <v>28717</v>
+        <v>28712</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C29" s="3">
         <v>4003</v>
       </c>
       <c r="D29" s="3">
-        <v>7795</v>
+        <v>7802</v>
       </c>
       <c r="E29" s="3">
-        <v>13496</v>
+        <v>13502</v>
       </c>
       <c r="F29" s="3">
         <v>12243</v>
       </c>
       <c r="G29" s="3">
-        <v>10284</v>
+        <v>10282</v>
       </c>
       <c r="H29" s="3">
-        <v>8332</v>
+        <v>8336</v>
       </c>
       <c r="I29" s="3">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="J29" s="3">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="K29" s="3">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="L29" s="3">
         <v>18</v>
       </c>
       <c r="M29" s="3">
-        <v>66462</v>
+        <v>66477</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" s="3">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="D30" s="3">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="E30" s="3">
-        <v>4689</v>
+        <v>4687</v>
       </c>
       <c r="F30" s="3">
-        <v>3964</v>
+        <v>3969</v>
       </c>
       <c r="G30" s="3">
-        <v>3632</v>
+        <v>3636</v>
       </c>
       <c r="H30" s="3">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="I30" s="3">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="J30" s="3">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K30" s="3">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L30" s="3">
         <v>23</v>
       </c>
       <c r="M30" s="3">
-        <v>23699</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -6381,40 +6509,40 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>3939</v>
+        <v>3949</v>
       </c>
       <c r="C31" s="1">
-        <v>54081</v>
+        <v>54085</v>
       </c>
       <c r="D31" s="1">
-        <v>113988</v>
+        <v>114006</v>
       </c>
       <c r="E31" s="1">
-        <v>110822</v>
+        <v>110835</v>
       </c>
       <c r="F31" s="1">
-        <v>112448</v>
+        <v>112455</v>
       </c>
       <c r="G31" s="1">
-        <v>95726</v>
+        <v>95730</v>
       </c>
       <c r="H31" s="1">
-        <v>77280</v>
+        <v>77288</v>
       </c>
       <c r="I31" s="1">
-        <v>50574</v>
+        <v>50572</v>
       </c>
       <c r="J31" s="1">
-        <v>25978</v>
+        <v>25982</v>
       </c>
       <c r="K31" s="1">
-        <v>13651</v>
+        <v>13650</v>
       </c>
       <c r="L31" s="1">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M31" s="1">
-        <v>658958</v>
+        <v>659022</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -6434,116 +6562,116 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>2610</v>
+        <v>2617</v>
       </c>
       <c r="C33" s="3">
-        <v>19445</v>
+        <v>19493</v>
       </c>
       <c r="D33" s="3">
-        <v>38062</v>
+        <v>38102</v>
       </c>
       <c r="E33" s="3">
-        <v>48150</v>
+        <v>48178</v>
       </c>
       <c r="F33" s="3">
-        <v>48469</v>
+        <v>48529</v>
       </c>
       <c r="G33" s="3">
-        <v>42369</v>
+        <v>42404</v>
       </c>
       <c r="H33" s="3">
-        <v>35349</v>
+        <v>35389</v>
       </c>
       <c r="I33" s="3">
-        <v>23705</v>
+        <v>23724</v>
       </c>
       <c r="J33" s="3">
         <v>12441</v>
       </c>
       <c r="K33" s="3">
-        <v>6965</v>
+        <v>6959</v>
       </c>
       <c r="L33" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="3">
-        <v>277619</v>
+        <v>277891</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C34" s="3">
-        <v>6871</v>
+        <v>6861</v>
       </c>
       <c r="D34" s="3">
-        <v>11017</v>
+        <v>11008</v>
       </c>
       <c r="E34" s="3">
-        <v>11407</v>
+        <v>11397</v>
       </c>
       <c r="F34" s="3">
-        <v>12136</v>
+        <v>12133</v>
       </c>
       <c r="G34" s="3">
-        <v>10707</v>
+        <v>10696</v>
       </c>
       <c r="H34" s="3">
-        <v>9356</v>
+        <v>9352</v>
       </c>
       <c r="I34" s="3">
-        <v>6988</v>
+        <v>6986</v>
       </c>
       <c r="J34" s="3">
-        <v>4267</v>
+        <v>4269</v>
       </c>
       <c r="K34" s="3">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="L34" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M34" s="3">
-        <v>76365</v>
+        <v>76318</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C35" s="3">
-        <v>5140</v>
+        <v>5127</v>
       </c>
       <c r="D35" s="3">
-        <v>8020</v>
+        <v>8014</v>
       </c>
       <c r="E35" s="3">
-        <v>7314</v>
+        <v>7307</v>
       </c>
       <c r="F35" s="3">
-        <v>7192</v>
+        <v>7186</v>
       </c>
       <c r="G35" s="3">
-        <v>6235</v>
+        <v>6230</v>
       </c>
       <c r="H35" s="3">
-        <v>5611</v>
+        <v>5606</v>
       </c>
       <c r="I35" s="3">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="J35" s="3">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="K35" s="3">
         <v>1233</v>
@@ -6552,80 +6680,80 @@
         <v>17</v>
       </c>
       <c r="M35" s="3">
-        <v>47378</v>
+        <v>47331</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C36" s="3">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="D36" s="3">
-        <v>4556</v>
+        <v>4553</v>
       </c>
       <c r="E36" s="3">
-        <v>3968</v>
+        <v>3957</v>
       </c>
       <c r="F36" s="3">
-        <v>4170</v>
+        <v>4157</v>
       </c>
       <c r="G36" s="3">
-        <v>3592</v>
+        <v>3582</v>
       </c>
       <c r="H36" s="3">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="I36" s="3">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="J36" s="3">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="K36" s="3">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L36" s="3">
         <v>18</v>
       </c>
       <c r="M36" s="3">
-        <v>27294</v>
+        <v>27238</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C37" s="3">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="D37" s="3">
-        <v>4007</v>
+        <v>4061</v>
       </c>
       <c r="E37" s="3">
-        <v>5318</v>
+        <v>5321</v>
       </c>
       <c r="F37" s="3">
-        <v>5217</v>
+        <v>5226</v>
       </c>
       <c r="G37" s="3">
-        <v>5004</v>
+        <v>5020</v>
       </c>
       <c r="H37" s="3">
-        <v>4435</v>
+        <v>4442</v>
       </c>
       <c r="I37" s="3">
-        <v>3297</v>
+        <v>3303</v>
       </c>
       <c r="J37" s="3">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="K37" s="3">
         <v>1015</v>
@@ -6634,238 +6762,274 @@
         <v>3</v>
       </c>
       <c r="M37" s="3">
-        <v>33504</v>
+        <v>33633</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
-        <v>1404</v>
+        <v>1419</v>
       </c>
       <c r="C38" s="3">
-        <v>5126</v>
+        <v>5242</v>
       </c>
       <c r="D38" s="3">
-        <v>5207</v>
+        <v>5322</v>
       </c>
       <c r="E38" s="3">
-        <v>10015</v>
+        <v>10041</v>
       </c>
       <c r="F38" s="3">
-        <v>10009</v>
+        <v>10079</v>
       </c>
       <c r="G38" s="3">
-        <v>9198</v>
+        <v>9300</v>
       </c>
       <c r="H38" s="3">
-        <v>8962</v>
+        <v>9035</v>
       </c>
       <c r="I38" s="3">
-        <v>7170</v>
+        <v>7277</v>
       </c>
       <c r="J38" s="3">
-        <v>4686</v>
+        <v>4738</v>
       </c>
       <c r="K38" s="3">
-        <v>2569</v>
+        <v>2598</v>
       </c>
       <c r="L38" s="3">
         <v>11</v>
       </c>
       <c r="M38" s="3">
-        <v>64357</v>
+        <v>65062</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>1192</v>
+        <v>2979</v>
       </c>
       <c r="C39" s="3">
-        <v>3577</v>
+        <v>9375</v>
       </c>
       <c r="D39" s="3">
-        <v>3298</v>
+        <v>8139</v>
       </c>
       <c r="E39" s="3">
-        <v>6803</v>
+        <v>15465</v>
       </c>
       <c r="F39" s="3">
-        <v>6505</v>
+        <v>15255</v>
       </c>
       <c r="G39" s="3">
-        <v>5939</v>
+        <v>14030</v>
       </c>
       <c r="H39" s="3">
-        <v>5650</v>
+        <v>13527</v>
       </c>
       <c r="I39" s="3">
-        <v>4718</v>
+        <v>11485</v>
       </c>
       <c r="J39" s="3">
-        <v>3382</v>
+        <v>8060</v>
       </c>
       <c r="K39" s="3">
-        <v>1910</v>
+        <v>4690</v>
       </c>
       <c r="L39" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="M39" s="3">
-        <v>42988</v>
+        <v>103076</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3">
+        <v>1052</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5464</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4472</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4837</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5023</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4572</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4445</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3786</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2543</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1643</v>
+      </c>
+      <c r="L40" s="3">
+        <v>7</v>
+      </c>
+      <c r="M40" s="3">
+        <v>37844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3">
         <v>14</v>
       </c>
-      <c r="C40" s="3">
-        <v>132</v>
-      </c>
-      <c r="D40" s="3">
-        <v>215</v>
-      </c>
-      <c r="E40" s="3">
-        <v>285</v>
-      </c>
-      <c r="F40" s="3">
-        <v>297</v>
-      </c>
-      <c r="G40" s="3">
-        <v>214</v>
-      </c>
-      <c r="H40" s="3">
-        <v>195</v>
-      </c>
-      <c r="I40" s="3">
-        <v>107</v>
-      </c>
-      <c r="J40" s="3">
-        <v>34</v>
-      </c>
-      <c r="K40" s="3">
-        <v>21</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="C41" s="3">
+        <v>137</v>
+      </c>
+      <c r="D41" s="3">
+        <v>227</v>
+      </c>
+      <c r="E41" s="3">
+        <v>292</v>
+      </c>
+      <c r="F41" s="3">
+        <v>304</v>
+      </c>
+      <c r="G41" s="3">
+        <v>222</v>
+      </c>
+      <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>113</v>
+      </c>
+      <c r="J41" s="3">
+        <v>35</v>
+      </c>
+      <c r="K41" s="3">
+        <v>24</v>
+      </c>
+      <c r="L41" s="3">
         <v>1</v>
       </c>
-      <c r="M40" s="3">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>7531</v>
-      </c>
-      <c r="C41" s="1">
-        <v>46058</v>
-      </c>
-      <c r="D41" s="1">
-        <v>74382</v>
-      </c>
-      <c r="E41" s="1">
-        <v>93260</v>
-      </c>
-      <c r="F41" s="1">
-        <v>93995</v>
-      </c>
-      <c r="G41" s="1">
-        <v>83258</v>
-      </c>
-      <c r="H41" s="1">
-        <v>72704</v>
-      </c>
-      <c r="I41" s="1">
-        <v>52103</v>
-      </c>
-      <c r="J41" s="1">
-        <v>30260</v>
-      </c>
-      <c r="K41" s="1">
-        <v>17337</v>
-      </c>
-      <c r="L41" s="1">
-        <v>132</v>
-      </c>
-      <c r="M41" s="1">
-        <v>571020</v>
+      <c r="M41" s="3">
+        <v>1569</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10390</v>
+      </c>
+      <c r="C42" s="1">
+        <v>57478</v>
+      </c>
+      <c r="D42" s="1">
+        <v>83898</v>
+      </c>
+      <c r="E42" s="1">
+        <v>106795</v>
+      </c>
+      <c r="F42" s="1">
+        <v>107892</v>
+      </c>
+      <c r="G42" s="1">
+        <v>96056</v>
+      </c>
+      <c r="H42" s="1">
+        <v>85143</v>
+      </c>
+      <c r="I42" s="1">
+        <v>62786</v>
+      </c>
+      <c r="J42" s="1">
+        <v>37540</v>
+      </c>
+      <c r="K42" s="1">
+        <v>21786</v>
+      </c>
+      <c r="L42" s="1">
+        <v>198</v>
+      </c>
+      <c r="M42" s="1">
+        <v>669962</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C43" s="1">
-        <v>106899</v>
-      </c>
-      <c r="D43" s="1">
-        <v>211057</v>
-      </c>
-      <c r="E43" s="1">
-        <v>237186</v>
-      </c>
-      <c r="F43" s="1">
-        <v>238597</v>
-      </c>
-      <c r="G43" s="1">
-        <v>208583</v>
-      </c>
-      <c r="H43" s="1">
-        <v>175508</v>
-      </c>
-      <c r="I43" s="1">
-        <v>120167</v>
-      </c>
-      <c r="J43" s="1">
-        <v>65104</v>
-      </c>
-      <c r="K43" s="1">
-        <v>35752</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1608</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1412961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15369</v>
+      </c>
+      <c r="C44" s="1">
+        <v>118323</v>
+      </c>
+      <c r="D44" s="1">
+        <v>220591</v>
+      </c>
+      <c r="E44" s="1">
+        <v>250734</v>
+      </c>
+      <c r="F44" s="1">
+        <v>252501</v>
+      </c>
+      <c r="G44" s="1">
+        <v>221385</v>
+      </c>
+      <c r="H44" s="1">
+        <v>187955</v>
+      </c>
+      <c r="I44" s="1">
+        <v>130848</v>
+      </c>
+      <c r="J44" s="1">
+        <v>72388</v>
+      </c>
+      <c r="K44" s="1">
+        <v>40200</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1673</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1511967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -6873,6 +7037,11 @@
     <row r="47" spans="1:13">
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +7051,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6893,17 +7062,17 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6911,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -7095,7 +7264,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>21533</v>
@@ -7136,223 +7305,223 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
-        <v>207820</v>
+        <v>207823</v>
       </c>
       <c r="C18" s="3">
-        <v>232623</v>
+        <v>232613</v>
       </c>
       <c r="D18" s="3">
-        <v>11760</v>
+        <v>11755</v>
       </c>
       <c r="E18" s="3">
-        <v>452203</v>
+        <v>452191</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
-        <v>86172</v>
+        <v>86167</v>
       </c>
       <c r="C19" s="3">
-        <v>94383</v>
+        <v>94384</v>
       </c>
       <c r="D19" s="3">
-        <v>7361</v>
+        <v>7360</v>
       </c>
       <c r="E19" s="3">
-        <v>187916</v>
+        <v>187911</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
-        <v>43352</v>
+        <v>43349</v>
       </c>
       <c r="C20" s="3">
-        <v>46199</v>
+        <v>46196</v>
       </c>
       <c r="D20" s="3">
         <v>2532</v>
       </c>
       <c r="E20" s="3">
-        <v>92083</v>
+        <v>92077</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>34894</v>
       </c>
       <c r="C21" s="3">
-        <v>37239</v>
+        <v>37237</v>
       </c>
       <c r="D21" s="3">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="E21" s="3">
-        <v>73996</v>
+        <v>73991</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
-        <v>22901</v>
+        <v>22902</v>
       </c>
       <c r="C22" s="3">
-        <v>24099</v>
+        <v>24098</v>
       </c>
       <c r="D22" s="3">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E22" s="3">
-        <v>48110</v>
+        <v>48109</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
-        <v>17332</v>
+        <v>17333</v>
       </c>
       <c r="C23" s="3">
-        <v>18239</v>
+        <v>18237</v>
       </c>
       <c r="D23" s="3">
         <v>2828</v>
       </c>
       <c r="E23" s="3">
-        <v>38399</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
-        <v>66138</v>
+        <v>66121</v>
       </c>
       <c r="C24" s="3">
-        <v>70926</v>
+        <v>70911</v>
       </c>
       <c r="D24" s="3">
-        <v>52976</v>
+        <v>52973</v>
       </c>
       <c r="E24" s="3">
-        <v>190040</v>
+        <v>190005</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
-        <v>172147</v>
+        <v>172132</v>
       </c>
       <c r="C25" s="3">
-        <v>184961</v>
+        <v>184938</v>
       </c>
       <c r="D25" s="3">
-        <v>6946</v>
+        <v>6936</v>
       </c>
       <c r="E25" s="3">
-        <v>364054</v>
+        <v>364006</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>144310</v>
+        <v>144283</v>
       </c>
       <c r="C26" s="3">
-        <v>154639</v>
+        <v>154625</v>
       </c>
       <c r="D26" s="3">
-        <v>7153</v>
+        <v>7151</v>
       </c>
       <c r="E26" s="3">
-        <v>306102</v>
+        <v>306059</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
-        <v>55180</v>
+        <v>55164</v>
       </c>
       <c r="C27" s="3">
-        <v>59155</v>
+        <v>59141</v>
       </c>
       <c r="D27" s="3">
         <v>2301</v>
       </c>
       <c r="E27" s="3">
-        <v>116636</v>
+        <v>116606</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
-        <v>32218</v>
+        <v>32209</v>
       </c>
       <c r="C28" s="3">
-        <v>34757</v>
+        <v>34741</v>
       </c>
       <c r="D28" s="3">
         <v>1381</v>
       </c>
       <c r="E28" s="3">
-        <v>68356</v>
+        <v>68331</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
-        <v>105954</v>
+        <v>105967</v>
       </c>
       <c r="C29" s="3">
-        <v>133020</v>
+        <v>133044</v>
       </c>
       <c r="D29" s="3">
         <v>3791</v>
       </c>
       <c r="E29" s="3">
-        <v>242765</v>
+        <v>242802</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>26952</v>
+        <v>27037</v>
       </c>
       <c r="C30" s="3">
-        <v>34965</v>
+        <v>35054</v>
       </c>
       <c r="D30" s="3">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E30" s="3">
-        <v>63265</v>
+        <v>63435</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7360,16 +7529,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>1015370</v>
+        <v>1015381</v>
       </c>
       <c r="C31" s="1">
-        <v>1125205</v>
+        <v>1125219</v>
       </c>
       <c r="D31" s="1">
-        <v>103350</v>
+        <v>103321</v>
       </c>
       <c r="E31" s="1">
-        <v>2243925</v>
+        <v>2243921</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7381,190 +7550,202 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>558374</v>
+        <v>558229</v>
       </c>
       <c r="C33" s="3">
-        <v>702308</v>
+        <v>702151</v>
       </c>
       <c r="D33" s="3">
-        <v>18572</v>
+        <v>18500</v>
       </c>
       <c r="E33" s="3">
-        <v>1279254</v>
+        <v>1278880</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
-        <v>107888</v>
+        <v>107864</v>
       </c>
       <c r="C34" s="3">
-        <v>128007</v>
+        <v>127988</v>
       </c>
       <c r="D34" s="3">
-        <v>6454</v>
+        <v>6438</v>
       </c>
       <c r="E34" s="3">
-        <v>242349</v>
+        <v>242290</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
-        <v>32839</v>
+        <v>32832</v>
       </c>
       <c r="C35" s="3">
-        <v>38435</v>
+        <v>38433</v>
       </c>
       <c r="D35" s="3">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E35" s="3">
-        <v>72964</v>
+        <v>72953</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
-        <v>17751</v>
+        <v>17758</v>
       </c>
       <c r="C36" s="3">
-        <v>20971</v>
+        <v>20984</v>
       </c>
       <c r="D36" s="3">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E36" s="3">
-        <v>39485</v>
+        <v>39504</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>38776</v>
+        <v>38784</v>
       </c>
       <c r="C37" s="3">
-        <v>48925</v>
+        <v>48922</v>
       </c>
       <c r="D37" s="3">
-        <v>1220</v>
+        <v>1476</v>
       </c>
       <c r="E37" s="3">
-        <v>88921</v>
+        <v>89182</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
-        <v>81102</v>
+        <v>81274</v>
       </c>
       <c r="C38" s="3">
-        <v>104244</v>
+        <v>104517</v>
       </c>
       <c r="D38" s="3">
-        <v>1470</v>
+        <v>2338</v>
       </c>
       <c r="E38" s="3">
-        <v>186816</v>
+        <v>188129</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>52204</v>
+        <v>115488</v>
       </c>
       <c r="C39" s="3">
-        <v>66547</v>
+        <v>146830</v>
       </c>
       <c r="D39" s="3">
-        <v>549</v>
+        <v>2148</v>
       </c>
       <c r="E39" s="3">
-        <v>119300</v>
+        <v>264466</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3">
-        <v>2453</v>
+        <v>36497</v>
       </c>
       <c r="C40" s="3">
-        <v>2823</v>
+        <v>45630</v>
       </c>
       <c r="D40" s="3">
+        <v>347</v>
+      </c>
+      <c r="E40" s="3">
+        <v>82474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2477</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2847</v>
+      </c>
+      <c r="D41" s="3">
         <v>1191</v>
       </c>
-      <c r="E40" s="3">
-        <v>6467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>891387</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1112260</v>
-      </c>
-      <c r="D41" s="1">
-        <v>31909</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2035556</v>
+      <c r="E41" s="3">
+        <v>6515</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>991203</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1238302</v>
+      </c>
+      <c r="D42" s="1">
+        <v>34888</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2264393</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2659379</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3066967</v>
-      </c>
-      <c r="D43" s="1">
-        <v>173634</v>
-      </c>
-      <c r="E43" s="1">
-        <v>5899980</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2759206</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3193023</v>
+      </c>
+      <c r="D44" s="1">
+        <v>176584</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6128813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -7572,6 +7753,11 @@
     <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7581,7 +7767,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7592,17 +7778,17 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7610,13 +7796,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -7794,7 +7980,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>2324</v>
@@ -7835,75 +8021,75 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
-        <v>36334</v>
+        <v>36335</v>
       </c>
       <c r="C18" s="3">
-        <v>42859</v>
+        <v>42864</v>
       </c>
       <c r="D18" s="3">
-        <v>11416</v>
+        <v>11413</v>
       </c>
       <c r="E18" s="3">
-        <v>90609</v>
+        <v>90612</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
-        <v>19420</v>
+        <v>19421</v>
       </c>
       <c r="C19" s="3">
-        <v>22547</v>
+        <v>22545</v>
       </c>
       <c r="D19" s="3">
         <v>6799</v>
       </c>
       <c r="E19" s="3">
-        <v>48766</v>
+        <v>48765</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
-        <v>15210</v>
+        <v>15209</v>
       </c>
       <c r="C20" s="3">
         <v>16986</v>
       </c>
       <c r="D20" s="3">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="E20" s="3">
-        <v>35495</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
-        <v>11992</v>
+        <v>11993</v>
       </c>
       <c r="C21" s="3">
-        <v>13278</v>
+        <v>13276</v>
       </c>
       <c r="D21" s="3">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E21" s="3">
-        <v>27357</v>
+        <v>27355</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
         <v>7830</v>
@@ -7912,146 +8098,146 @@
         <v>8611</v>
       </c>
       <c r="D22" s="3">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E22" s="3">
-        <v>17684</v>
+        <v>17683</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>6252</v>
       </c>
       <c r="C23" s="3">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="D23" s="3">
         <v>733</v>
       </c>
       <c r="E23" s="3">
-        <v>13808</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
-        <v>19569</v>
+        <v>19597</v>
       </c>
       <c r="C24" s="3">
-        <v>21559</v>
+        <v>21592</v>
       </c>
       <c r="D24" s="3">
-        <v>19319</v>
+        <v>19317</v>
       </c>
       <c r="E24" s="3">
-        <v>60447</v>
+        <v>60506</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
-        <v>41814</v>
+        <v>41818</v>
       </c>
       <c r="C25" s="3">
-        <v>46980</v>
+        <v>46983</v>
       </c>
       <c r="D25" s="3">
-        <v>6079</v>
+        <v>6076</v>
       </c>
       <c r="E25" s="3">
-        <v>94873</v>
+        <v>94877</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>47172</v>
+        <v>47167</v>
       </c>
       <c r="C26" s="3">
-        <v>52920</v>
+        <v>52913</v>
       </c>
       <c r="D26" s="3">
-        <v>5806</v>
+        <v>5801</v>
       </c>
       <c r="E26" s="3">
-        <v>105898</v>
+        <v>105881</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
-        <v>20279</v>
+        <v>20278</v>
       </c>
       <c r="C27" s="3">
-        <v>22860</v>
+        <v>22856</v>
       </c>
       <c r="D27" s="3">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E27" s="3">
-        <v>45143</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
-        <v>12719</v>
+        <v>12717</v>
       </c>
       <c r="C28" s="3">
-        <v>14615</v>
+        <v>14614</v>
       </c>
       <c r="D28" s="3">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E28" s="3">
-        <v>28717</v>
+        <v>28712</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
-        <v>29205</v>
+        <v>29214</v>
       </c>
       <c r="C29" s="3">
-        <v>36452</v>
+        <v>36461</v>
       </c>
       <c r="D29" s="3">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E29" s="3">
-        <v>66462</v>
+        <v>66477</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>10543</v>
+        <v>10550</v>
       </c>
       <c r="C30" s="3">
-        <v>12824</v>
+        <v>12841</v>
       </c>
       <c r="D30" s="3">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E30" s="3">
-        <v>23699</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8059,16 +8245,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>278339</v>
+        <v>278381</v>
       </c>
       <c r="C31" s="1">
-        <v>319314</v>
+        <v>319364</v>
       </c>
       <c r="D31" s="1">
-        <v>61305</v>
+        <v>61277</v>
       </c>
       <c r="E31" s="1">
-        <v>658958</v>
+        <v>659022</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8080,190 +8266,202 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>121294</v>
+        <v>121454</v>
       </c>
       <c r="C33" s="3">
-        <v>152683</v>
+        <v>152806</v>
       </c>
       <c r="D33" s="3">
-        <v>3642</v>
+        <v>3631</v>
       </c>
       <c r="E33" s="3">
-        <v>277619</v>
+        <v>277891</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
-        <v>33891</v>
+        <v>33872</v>
       </c>
       <c r="C34" s="3">
-        <v>40875</v>
+        <v>40851</v>
       </c>
       <c r="D34" s="3">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E34" s="3">
-        <v>76365</v>
+        <v>76318</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
-        <v>21041</v>
+        <v>21021</v>
       </c>
       <c r="C35" s="3">
-        <v>25485</v>
+        <v>25464</v>
       </c>
       <c r="D35" s="3">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E35" s="3">
-        <v>47378</v>
+        <v>47331</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
-        <v>11955</v>
+        <v>11936</v>
       </c>
       <c r="C36" s="3">
-        <v>14759</v>
+        <v>14744</v>
       </c>
       <c r="D36" s="3">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="E36" s="3">
-        <v>27294</v>
+        <v>27238</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>14651</v>
+        <v>14688</v>
       </c>
       <c r="C37" s="3">
-        <v>18483</v>
+        <v>18575</v>
       </c>
       <c r="D37" s="3">
         <v>370</v>
       </c>
       <c r="E37" s="3">
-        <v>33504</v>
+        <v>33633</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
-        <v>27793</v>
+        <v>28068</v>
       </c>
       <c r="C38" s="3">
-        <v>35568</v>
+        <v>35865</v>
       </c>
       <c r="D38" s="3">
-        <v>996</v>
+        <v>1129</v>
       </c>
       <c r="E38" s="3">
-        <v>64357</v>
+        <v>65062</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>18487</v>
+        <v>44557</v>
       </c>
       <c r="C39" s="3">
-        <v>24139</v>
+        <v>57177</v>
       </c>
       <c r="D39" s="3">
-        <v>362</v>
+        <v>1342</v>
       </c>
       <c r="E39" s="3">
-        <v>42988</v>
+        <v>103076</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3">
-        <v>572</v>
+        <v>16747</v>
       </c>
       <c r="C40" s="3">
-        <v>695</v>
+        <v>20801</v>
       </c>
       <c r="D40" s="3">
+        <v>296</v>
+      </c>
+      <c r="E40" s="3">
+        <v>37844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3">
+        <v>591</v>
+      </c>
+      <c r="C41" s="3">
+        <v>730</v>
+      </c>
+      <c r="D41" s="3">
         <v>248</v>
       </c>
-      <c r="E40" s="3">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>249684</v>
-      </c>
-      <c r="C41" s="1">
-        <v>312687</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8649</v>
-      </c>
-      <c r="E41" s="1">
-        <v>571020</v>
+      <c r="E41" s="3">
+        <v>1569</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>292934</v>
+      </c>
+      <c r="C42" s="1">
+        <v>367013</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10015</v>
+      </c>
+      <c r="E42" s="1">
+        <v>669962</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>601901</v>
-      </c>
-      <c r="C43" s="1">
-        <v>720156</v>
-      </c>
-      <c r="D43" s="1">
-        <v>90904</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1412961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>645193</v>
+      </c>
+      <c r="C44" s="1">
+        <v>774532</v>
+      </c>
+      <c r="D44" s="1">
+        <v>92242</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1511967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -8271,6 +8469,11 @@
     <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8280,7 +8483,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8291,17 +8494,17 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8309,22 +8512,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -8592,7 +8795,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>1101</v>
@@ -8654,85 +8857,85 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>10740</v>
       </c>
       <c r="C18" s="3">
-        <v>28400</v>
+        <v>28398</v>
       </c>
       <c r="D18" s="3">
-        <v>130029</v>
+        <v>130024</v>
       </c>
       <c r="E18" s="3">
         <v>1349</v>
       </c>
       <c r="F18" s="3">
-        <v>94737</v>
+        <v>94743</v>
       </c>
       <c r="G18" s="3">
-        <v>186948</v>
+        <v>186937</v>
       </c>
       <c r="H18" s="3">
-        <v>452203</v>
+        <v>452191</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>4739</v>
       </c>
       <c r="C19" s="3">
-        <v>13552</v>
+        <v>13553</v>
       </c>
       <c r="D19" s="3">
-        <v>54137</v>
+        <v>54136</v>
       </c>
       <c r="E19" s="3">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F19" s="3">
-        <v>40162</v>
+        <v>40159</v>
       </c>
       <c r="G19" s="3">
-        <v>74772</v>
+        <v>74769</v>
       </c>
       <c r="H19" s="3">
-        <v>187916</v>
+        <v>187911</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
         <v>2404</v>
       </c>
       <c r="C20" s="3">
-        <v>7500</v>
+        <v>7498</v>
       </c>
       <c r="D20" s="3">
-        <v>26900</v>
+        <v>26901</v>
       </c>
       <c r="E20" s="3">
         <v>319</v>
       </c>
       <c r="F20" s="3">
-        <v>21510</v>
+        <v>21507</v>
       </c>
       <c r="G20" s="3">
-        <v>33450</v>
+        <v>33448</v>
       </c>
       <c r="H20" s="3">
-        <v>92083</v>
+        <v>92077</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>1454</v>
@@ -8741,24 +8944,24 @@
         <v>7135</v>
       </c>
       <c r="D21" s="3">
-        <v>22188</v>
+        <v>22189</v>
       </c>
       <c r="E21" s="3">
         <v>302</v>
       </c>
       <c r="F21" s="3">
-        <v>15782</v>
+        <v>15785</v>
       </c>
       <c r="G21" s="3">
-        <v>27135</v>
+        <v>27126</v>
       </c>
       <c r="H21" s="3">
-        <v>73996</v>
+        <v>73991</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
         <v>738</v>
@@ -8767,24 +8970,24 @@
         <v>4452</v>
       </c>
       <c r="D22" s="3">
-        <v>13738</v>
+        <v>13742</v>
       </c>
       <c r="E22" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="3">
-        <v>9893</v>
+        <v>9895</v>
       </c>
       <c r="G22" s="3">
-        <v>19138</v>
+        <v>19132</v>
       </c>
       <c r="H22" s="3">
-        <v>48110</v>
+        <v>48109</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>525</v>
@@ -8793,201 +8996,201 @@
         <v>3736</v>
       </c>
       <c r="D23" s="3">
-        <v>10556</v>
+        <v>10557</v>
       </c>
       <c r="E23" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="3">
-        <v>7671</v>
+        <v>7672</v>
       </c>
       <c r="G23" s="3">
-        <v>15784</v>
+        <v>15780</v>
       </c>
       <c r="H23" s="3">
-        <v>38399</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
         <v>2020</v>
       </c>
       <c r="C24" s="3">
-        <v>15210</v>
+        <v>15208</v>
       </c>
       <c r="D24" s="3">
-        <v>39531</v>
+        <v>39522</v>
       </c>
       <c r="E24" s="3">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="F24" s="3">
-        <v>36467</v>
+        <v>36465</v>
       </c>
       <c r="G24" s="3">
-        <v>96397</v>
+        <v>96366</v>
       </c>
       <c r="H24" s="3">
-        <v>190040</v>
+        <v>190005</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
-        <v>5328</v>
+        <v>5329</v>
       </c>
       <c r="C25" s="3">
-        <v>33125</v>
+        <v>33116</v>
       </c>
       <c r="D25" s="3">
-        <v>93234</v>
+        <v>93233</v>
       </c>
       <c r="E25" s="3">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F25" s="3">
-        <v>88539</v>
+        <v>88531</v>
       </c>
       <c r="G25" s="3">
-        <v>142773</v>
+        <v>142740</v>
       </c>
       <c r="H25" s="3">
-        <v>364054</v>
+        <v>364006</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>5617</v>
+        <v>5615</v>
       </c>
       <c r="C26" s="3">
-        <v>27327</v>
+        <v>27322</v>
       </c>
       <c r="D26" s="3">
-        <v>69351</v>
+        <v>69368</v>
       </c>
       <c r="E26" s="3">
-        <v>959</v>
+        <v>984</v>
       </c>
       <c r="F26" s="3">
-        <v>80210</v>
+        <v>80228</v>
       </c>
       <c r="G26" s="3">
-        <v>122638</v>
+        <v>122542</v>
       </c>
       <c r="H26" s="3">
-        <v>306102</v>
+        <v>306059</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="C27" s="3">
-        <v>9984</v>
+        <v>9976</v>
       </c>
       <c r="D27" s="3">
-        <v>27524</v>
+        <v>27518</v>
       </c>
       <c r="E27" s="3">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F27" s="3">
-        <v>33721</v>
+        <v>33708</v>
       </c>
       <c r="G27" s="3">
-        <v>42052</v>
+        <v>42049</v>
       </c>
       <c r="H27" s="3">
-        <v>116636</v>
+        <v>116606</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C28" s="3">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="D28" s="3">
-        <v>16748</v>
+        <v>16739</v>
       </c>
       <c r="E28" s="3">
         <v>2546</v>
       </c>
       <c r="F28" s="3">
-        <v>20947</v>
+        <v>20941</v>
       </c>
       <c r="G28" s="3">
-        <v>21450</v>
+        <v>21445</v>
       </c>
       <c r="H28" s="3">
-        <v>68356</v>
+        <v>68331</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
-        <v>9389</v>
+        <v>9395</v>
       </c>
       <c r="C29" s="3">
-        <v>34508</v>
+        <v>34517</v>
       </c>
       <c r="D29" s="3">
-        <v>56491</v>
+        <v>56552</v>
       </c>
       <c r="E29" s="3">
-        <v>15210</v>
+        <v>15209</v>
       </c>
       <c r="F29" s="3">
-        <v>59918</v>
+        <v>59952</v>
       </c>
       <c r="G29" s="3">
-        <v>67249</v>
+        <v>67177</v>
       </c>
       <c r="H29" s="3">
-        <v>242765</v>
+        <v>242802</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="C30" s="3">
-        <v>7745</v>
+        <v>7773</v>
       </c>
       <c r="D30" s="3">
-        <v>16650</v>
+        <v>16698</v>
       </c>
       <c r="E30" s="3">
-        <v>3764</v>
+        <v>3774</v>
       </c>
       <c r="F30" s="3">
-        <v>16087</v>
+        <v>16153</v>
       </c>
       <c r="G30" s="3">
-        <v>16888</v>
+        <v>16903</v>
       </c>
       <c r="H30" s="3">
-        <v>63265</v>
+        <v>63435</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8995,25 +9198,25 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>49633</v>
+        <v>49636</v>
       </c>
       <c r="C31" s="1">
-        <v>197525</v>
+        <v>197533</v>
       </c>
       <c r="D31" s="1">
-        <v>577077</v>
+        <v>577179</v>
       </c>
       <c r="E31" s="1">
-        <v>27372</v>
+        <v>27420</v>
       </c>
       <c r="F31" s="1">
-        <v>525644</v>
+        <v>525739</v>
       </c>
       <c r="G31" s="1">
-        <v>866674</v>
+        <v>866414</v>
       </c>
       <c r="H31" s="1">
-        <v>2243925</v>
+        <v>2243921</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9028,59 +9231,59 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>43441</v>
+        <v>43444</v>
       </c>
       <c r="C33" s="3">
-        <v>97559</v>
+        <v>97542</v>
       </c>
       <c r="D33" s="3">
-        <v>352537</v>
+        <v>353202</v>
       </c>
       <c r="E33" s="3">
-        <v>88471</v>
+        <v>88450</v>
       </c>
       <c r="F33" s="3">
-        <v>297129</v>
+        <v>297130</v>
       </c>
       <c r="G33" s="3">
-        <v>400117</v>
+        <v>399112</v>
       </c>
       <c r="H33" s="3">
-        <v>1279254</v>
+        <v>1278880</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
-        <v>7968</v>
+        <v>7969</v>
       </c>
       <c r="C34" s="3">
-        <v>14288</v>
+        <v>14287</v>
       </c>
       <c r="D34" s="3">
-        <v>65030</v>
+        <v>65064</v>
       </c>
       <c r="E34" s="3">
-        <v>13710</v>
+        <v>13713</v>
       </c>
       <c r="F34" s="3">
-        <v>63047</v>
+        <v>63046</v>
       </c>
       <c r="G34" s="3">
-        <v>78306</v>
+        <v>78211</v>
       </c>
       <c r="H34" s="3">
-        <v>242349</v>
+        <v>242290</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
         <v>2901</v>
@@ -9089,222 +9292,243 @@
         <v>6763</v>
       </c>
       <c r="D35" s="3">
-        <v>20853</v>
+        <v>20867</v>
       </c>
       <c r="E35" s="3">
-        <v>4510</v>
+        <v>4506</v>
       </c>
       <c r="F35" s="3">
-        <v>18035</v>
+        <v>18027</v>
       </c>
       <c r="G35" s="3">
-        <v>19902</v>
+        <v>19889</v>
       </c>
       <c r="H35" s="3">
-        <v>72964</v>
+        <v>72953</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="C36" s="3">
-        <v>3592</v>
+        <v>3597</v>
       </c>
       <c r="D36" s="3">
-        <v>8677</v>
+        <v>8686</v>
       </c>
       <c r="E36" s="3">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F36" s="3">
-        <v>12841</v>
+        <v>12856</v>
       </c>
       <c r="G36" s="3">
-        <v>9958</v>
+        <v>9944</v>
       </c>
       <c r="H36" s="3">
-        <v>39485</v>
+        <v>39504</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>6445</v>
+        <v>6474</v>
       </c>
       <c r="C37" s="3">
-        <v>8363</v>
+        <v>8400</v>
       </c>
       <c r="D37" s="3">
-        <v>19260</v>
+        <v>19337</v>
       </c>
       <c r="E37" s="3">
-        <v>3835</v>
+        <v>3808</v>
       </c>
       <c r="F37" s="3">
-        <v>26424</v>
+        <v>26504</v>
       </c>
       <c r="G37" s="3">
-        <v>24594</v>
+        <v>24659</v>
       </c>
       <c r="H37" s="3">
-        <v>88921</v>
+        <v>89182</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
-        <v>11276</v>
+        <v>11469</v>
       </c>
       <c r="C38" s="3">
-        <v>20355</v>
+        <v>20744</v>
       </c>
       <c r="D38" s="3">
-        <v>44895</v>
+        <v>45675</v>
       </c>
       <c r="E38" s="3">
-        <v>8338</v>
+        <v>8176</v>
       </c>
       <c r="F38" s="3">
-        <v>49462</v>
+        <v>50025</v>
       </c>
       <c r="G38" s="3">
-        <v>52490</v>
+        <v>52040</v>
       </c>
       <c r="H38" s="3">
-        <v>186816</v>
+        <v>188129</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>5442</v>
+        <v>11371</v>
       </c>
       <c r="C39" s="3">
-        <v>13646</v>
+        <v>30632</v>
       </c>
       <c r="D39" s="3">
-        <v>29875</v>
+        <v>68670</v>
       </c>
       <c r="E39" s="3">
-        <v>5039</v>
+        <v>10881</v>
       </c>
       <c r="F39" s="3">
-        <v>29975</v>
+        <v>68105</v>
       </c>
       <c r="G39" s="3">
-        <v>35323</v>
+        <v>74807</v>
       </c>
       <c r="H39" s="3">
-        <v>119300</v>
+        <v>264466</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3">
-        <v>155</v>
+        <v>3673</v>
       </c>
       <c r="C40" s="3">
-        <v>623</v>
+        <v>9150</v>
       </c>
       <c r="D40" s="3">
-        <v>1769</v>
+        <v>22689</v>
       </c>
       <c r="E40" s="3">
-        <v>185</v>
+        <v>3404</v>
       </c>
       <c r="F40" s="3">
-        <v>2453</v>
+        <v>21637</v>
       </c>
       <c r="G40" s="3">
-        <v>1282</v>
+        <v>21921</v>
       </c>
       <c r="H40" s="3">
-        <v>6467</v>
+        <v>82474</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>80049</v>
-      </c>
-      <c r="C41" s="1">
-        <v>165189</v>
-      </c>
-      <c r="D41" s="1">
-        <v>542896</v>
-      </c>
-      <c r="E41" s="1">
-        <v>126084</v>
-      </c>
-      <c r="F41" s="1">
-        <v>499366</v>
-      </c>
-      <c r="G41" s="1">
-        <v>621972</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2035556</v>
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3">
+        <v>156</v>
+      </c>
+      <c r="C41" s="3">
+        <v>629</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1781</v>
+      </c>
+      <c r="E41" s="3">
+        <v>189</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2472</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1288</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6515</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>89883</v>
+      </c>
+      <c r="C42" s="1">
+        <v>191744</v>
+      </c>
+      <c r="D42" s="1">
+        <v>605971</v>
+      </c>
+      <c r="E42" s="1">
+        <v>135122</v>
+      </c>
+      <c r="F42" s="1">
+        <v>559802</v>
+      </c>
+      <c r="G42" s="1">
+        <v>681871</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2264393</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>156304</v>
-      </c>
-      <c r="C43" s="1">
-        <v>467991</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1554202</v>
-      </c>
-      <c r="E43" s="1">
-        <v>157989</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1338923</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2224571</v>
-      </c>
-      <c r="H43" s="1">
-        <v>5899980</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>166141</v>
+      </c>
+      <c r="C44" s="1">
+        <v>494554</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1617379</v>
+      </c>
+      <c r="E44" s="1">
+        <v>167075</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1399454</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2284210</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6128813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -9312,6 +9536,11 @@
     <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9321,7 +9550,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9332,17 +9561,17 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9350,22 +9579,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -9633,7 +9862,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>72</v>
@@ -9695,7 +9924,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>1341</v>
@@ -9704,30 +9933,30 @@
         <v>3701</v>
       </c>
       <c r="D18" s="3">
-        <v>17548</v>
+        <v>17549</v>
       </c>
       <c r="E18" s="3">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F18" s="3">
-        <v>22864</v>
+        <v>22866</v>
       </c>
       <c r="G18" s="3">
-        <v>44953</v>
+        <v>44952</v>
       </c>
       <c r="H18" s="3">
-        <v>90609</v>
+        <v>90612</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>813</v>
       </c>
       <c r="C19" s="3">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D19" s="3">
         <v>8837</v>
@@ -9742,12 +9971,12 @@
         <v>24805</v>
       </c>
       <c r="H19" s="3">
-        <v>48766</v>
+        <v>48765</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
         <v>661</v>
@@ -9762,18 +9991,18 @@
         <v>83</v>
       </c>
       <c r="F20" s="3">
-        <v>8596</v>
+        <v>8597</v>
       </c>
       <c r="G20" s="3">
-        <v>17539</v>
+        <v>17536</v>
       </c>
       <c r="H20" s="3">
-        <v>35495</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>523</v>
@@ -9785,21 +10014,21 @@
         <v>6721</v>
       </c>
       <c r="E21" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3">
         <v>7224</v>
       </c>
       <c r="G21" s="3">
-        <v>10994</v>
+        <v>10993</v>
       </c>
       <c r="H21" s="3">
-        <v>27357</v>
+        <v>27355</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
         <v>299</v>
@@ -9808,7 +10037,7 @@
         <v>1419</v>
       </c>
       <c r="D22" s="3">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="E22" s="3">
         <v>57</v>
@@ -9817,15 +10046,15 @@
         <v>4928</v>
       </c>
       <c r="G22" s="3">
-        <v>5992</v>
+        <v>5990</v>
       </c>
       <c r="H22" s="3">
-        <v>17684</v>
+        <v>17683</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>210</v>
@@ -9834,7 +10063,7 @@
         <v>1062</v>
       </c>
       <c r="D23" s="3">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="E23" s="3">
         <v>43</v>
@@ -9846,189 +10075,189 @@
         <v>4913</v>
       </c>
       <c r="H23" s="3">
-        <v>13808</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
         <v>576</v>
       </c>
       <c r="C24" s="3">
-        <v>3241</v>
+        <v>3246</v>
       </c>
       <c r="D24" s="3">
-        <v>11728</v>
+        <v>11763</v>
       </c>
       <c r="E24" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3">
-        <v>11979</v>
+        <v>11993</v>
       </c>
       <c r="G24" s="3">
-        <v>32817</v>
+        <v>32819</v>
       </c>
       <c r="H24" s="3">
-        <v>60447</v>
+        <v>60506</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C25" s="3">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="D25" s="3">
-        <v>17404</v>
+        <v>17423</v>
       </c>
       <c r="E25" s="3">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F25" s="3">
-        <v>28116</v>
+        <v>28119</v>
       </c>
       <c r="G25" s="3">
-        <v>42841</v>
+        <v>42820</v>
       </c>
       <c r="H25" s="3">
-        <v>94873</v>
+        <v>94877</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C26" s="3">
-        <v>7267</v>
+        <v>7268</v>
       </c>
       <c r="D26" s="3">
-        <v>22941</v>
+        <v>22962</v>
       </c>
       <c r="E26" s="3">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F26" s="3">
-        <v>35119</v>
+        <v>35111</v>
       </c>
       <c r="G26" s="3">
-        <v>39206</v>
+        <v>39174</v>
       </c>
       <c r="H26" s="3">
-        <v>105898</v>
+        <v>105881</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
         <v>567</v>
       </c>
       <c r="C27" s="3">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D27" s="3">
-        <v>9072</v>
+        <v>9070</v>
       </c>
       <c r="E27" s="3">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F27" s="3">
         <v>14219</v>
       </c>
       <c r="G27" s="3">
-        <v>18258</v>
+        <v>18257</v>
       </c>
       <c r="H27" s="3">
-        <v>45143</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
         <v>415</v>
       </c>
       <c r="C28" s="3">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D28" s="3">
-        <v>6325</v>
+        <v>6324</v>
       </c>
       <c r="E28" s="3">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F28" s="3">
-        <v>9488</v>
+        <v>9490</v>
       </c>
       <c r="G28" s="3">
-        <v>10170</v>
+        <v>10164</v>
       </c>
       <c r="H28" s="3">
-        <v>28717</v>
+        <v>28712</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C29" s="3">
         <v>6410</v>
       </c>
       <c r="D29" s="3">
-        <v>12808</v>
+        <v>12831</v>
       </c>
       <c r="E29" s="3">
-        <v>5186</v>
+        <v>5183</v>
       </c>
       <c r="F29" s="3">
-        <v>20818</v>
+        <v>20813</v>
       </c>
       <c r="G29" s="3">
-        <v>20177</v>
+        <v>20178</v>
       </c>
       <c r="H29" s="3">
-        <v>66462</v>
+        <v>66477</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C30" s="3">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D30" s="3">
-        <v>6775</v>
+        <v>6780</v>
       </c>
       <c r="E30" s="3">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F30" s="3">
-        <v>6303</v>
+        <v>6307</v>
       </c>
       <c r="G30" s="3">
-        <v>7499</v>
+        <v>7508</v>
       </c>
       <c r="H30" s="3">
-        <v>23699</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10039,22 +10268,22 @@
         <v>8562</v>
       </c>
       <c r="C31" s="1">
-        <v>39949</v>
+        <v>39954</v>
       </c>
       <c r="D31" s="1">
-        <v>136223</v>
+        <v>136324</v>
       </c>
       <c r="E31" s="1">
         <v>8866</v>
       </c>
       <c r="F31" s="1">
-        <v>185194</v>
+        <v>185207</v>
       </c>
       <c r="G31" s="1">
-        <v>280164</v>
+        <v>280109</v>
       </c>
       <c r="H31" s="1">
-        <v>658958</v>
+        <v>659022</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10069,283 +10298,304 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="C33" s="3">
-        <v>20496</v>
+        <v>20507</v>
       </c>
       <c r="D33" s="3">
-        <v>65478</v>
+        <v>65654</v>
       </c>
       <c r="E33" s="3">
-        <v>17342</v>
+        <v>17358</v>
       </c>
       <c r="F33" s="3">
-        <v>94131</v>
+        <v>94140</v>
       </c>
       <c r="G33" s="3">
-        <v>74973</v>
+        <v>75034</v>
       </c>
       <c r="H33" s="3">
-        <v>277619</v>
+        <v>277891</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
         <v>1463</v>
       </c>
       <c r="C34" s="3">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="D34" s="3">
-        <v>22908</v>
+        <v>22899</v>
       </c>
       <c r="E34" s="3">
-        <v>3123</v>
+        <v>3114</v>
       </c>
       <c r="F34" s="3">
-        <v>23666</v>
+        <v>23660</v>
       </c>
       <c r="G34" s="3">
-        <v>21099</v>
+        <v>21078</v>
       </c>
       <c r="H34" s="3">
-        <v>76365</v>
+        <v>76318</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C35" s="3">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D35" s="3">
-        <v>13591</v>
+        <v>13580</v>
       </c>
       <c r="E35" s="3">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="F35" s="3">
-        <v>10440</v>
+        <v>10439</v>
       </c>
       <c r="G35" s="3">
-        <v>19222</v>
+        <v>19192</v>
       </c>
       <c r="H35" s="3">
-        <v>47378</v>
+        <v>47331</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C36" s="3">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D36" s="3">
-        <v>8668</v>
+        <v>8660</v>
       </c>
       <c r="E36" s="3">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F36" s="3">
-        <v>7152</v>
+        <v>7143</v>
       </c>
       <c r="G36" s="3">
-        <v>8439</v>
+        <v>8401</v>
       </c>
       <c r="H36" s="3">
-        <v>27294</v>
+        <v>27238</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>1417</v>
+        <v>1431</v>
       </c>
       <c r="C37" s="3">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="D37" s="3">
-        <v>8789</v>
+        <v>8841</v>
       </c>
       <c r="E37" s="3">
         <v>1792</v>
       </c>
       <c r="F37" s="3">
-        <v>11088</v>
+        <v>11126</v>
       </c>
       <c r="G37" s="3">
-        <v>8178</v>
+        <v>8199</v>
       </c>
       <c r="H37" s="3">
-        <v>33504</v>
+        <v>33633</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
-        <v>2028</v>
+        <v>2044</v>
       </c>
       <c r="C38" s="3">
-        <v>5233</v>
+        <v>5243</v>
       </c>
       <c r="D38" s="3">
-        <v>16341</v>
+        <v>16477</v>
       </c>
       <c r="E38" s="3">
-        <v>4116</v>
+        <v>4107</v>
       </c>
       <c r="F38" s="3">
-        <v>20197</v>
+        <v>20426</v>
       </c>
       <c r="G38" s="3">
-        <v>16442</v>
+        <v>16765</v>
       </c>
       <c r="H38" s="3">
-        <v>64357</v>
+        <v>65062</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>1105</v>
+        <v>2401</v>
       </c>
       <c r="C39" s="3">
-        <v>3902</v>
+        <v>9094</v>
       </c>
       <c r="D39" s="3">
-        <v>10808</v>
+        <v>26854</v>
       </c>
       <c r="E39" s="3">
-        <v>2840</v>
+        <v>6762</v>
       </c>
       <c r="F39" s="3">
-        <v>14140</v>
+        <v>34772</v>
       </c>
       <c r="G39" s="3">
-        <v>10193</v>
+        <v>23193</v>
       </c>
       <c r="H39" s="3">
-        <v>42988</v>
+        <v>103076</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="C40" s="3">
+        <v>2485</v>
+      </c>
+      <c r="D40" s="3">
+        <v>9879</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2105</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11314</v>
+      </c>
+      <c r="G40" s="3">
+        <v>11361</v>
+      </c>
+      <c r="H40" s="3">
+        <v>37844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3">
+        <v>17</v>
+      </c>
+      <c r="C41" s="3">
         <v>78</v>
       </c>
-      <c r="D40" s="3">
-        <v>375</v>
-      </c>
-      <c r="E40" s="3">
-        <v>41</v>
-      </c>
-      <c r="F40" s="3">
-        <v>353</v>
-      </c>
-      <c r="G40" s="3">
-        <v>652</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>12620</v>
-      </c>
-      <c r="C41" s="1">
-        <v>39081</v>
-      </c>
-      <c r="D41" s="1">
-        <v>146958</v>
-      </c>
-      <c r="E41" s="1">
-        <v>31996</v>
-      </c>
-      <c r="F41" s="1">
-        <v>181167</v>
-      </c>
-      <c r="G41" s="1">
-        <v>159198</v>
-      </c>
-      <c r="H41" s="1">
-        <v>571020</v>
+      <c r="D41" s="3">
+        <v>397</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44</v>
+      </c>
+      <c r="F41" s="3">
+        <v>358</v>
+      </c>
+      <c r="G41" s="3">
+        <v>675</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1569</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14646</v>
+      </c>
+      <c r="C42" s="1">
+        <v>46779</v>
+      </c>
+      <c r="D42" s="1">
+        <v>173241</v>
+      </c>
+      <c r="E42" s="1">
+        <v>38020</v>
+      </c>
+      <c r="F42" s="1">
+        <v>213378</v>
+      </c>
+      <c r="G42" s="1">
+        <v>183898</v>
+      </c>
+      <c r="H42" s="1">
+        <v>669962</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>22908</v>
-      </c>
-      <c r="C43" s="1">
-        <v>84991</v>
-      </c>
-      <c r="D43" s="1">
-        <v>324099</v>
-      </c>
-      <c r="E43" s="1">
-        <v>41263</v>
-      </c>
-      <c r="F43" s="1">
-        <v>412115</v>
-      </c>
-      <c r="G43" s="1">
-        <v>527585</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1412961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>24934</v>
+      </c>
+      <c r="C44" s="1">
+        <v>92694</v>
+      </c>
+      <c r="D44" s="1">
+        <v>350483</v>
+      </c>
+      <c r="E44" s="1">
+        <v>47287</v>
+      </c>
+      <c r="F44" s="1">
+        <v>444339</v>
+      </c>
+      <c r="G44" s="1">
+        <v>552230</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1511967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -10353,6 +10603,11 @@
     <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
